--- a/Misc/Criteria.xlsx
+++ b/Misc/Criteria.xlsx
@@ -1,17 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\internship\AI_evaluator-main\AI_evaluator-main\Misc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A0B6312-D960-4928-9434-7D7D69BBDF42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="2856" yWindow="2856" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -33,10 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
-  <si>
-    <t>Sl.No</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>NAME OF THE TEAM</t>
   </si>
@@ -52,7 +71,7 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
@@ -62,7 +81,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="Arial (Body)"/>
@@ -73,7 +92,7 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
@@ -83,7 +102,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
@@ -92,7 +111,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="Arial (Body)"/>
@@ -101,7 +120,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
@@ -112,7 +131,7 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
@@ -122,7 +141,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="Arial (Body)"/>
@@ -133,7 +152,7 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
@@ -143,7 +162,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="Arial (Body)"/>
@@ -154,7 +173,7 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
@@ -164,7 +183,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="Arial (Body)"/>
@@ -187,7 +206,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="13"/>
         <rFont val="Roboto"/>
@@ -196,15 +215,12 @@
     </r>
   </si>
   <si>
-    <t>Good idea. Tech design needs refinement. Agentic AI's role needs better clarity</t>
-  </si>
-  <si>
     <t>CitiMorphs</t>
   </si>
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="12"/>
         <color indexed="14"/>
         <rFont val="Calibri"/>
@@ -215,7 +231,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="13"/>
         <rFont val="Roboto"/>
@@ -224,9 +240,6 @@
     </r>
   </si>
   <si>
-    <t>Solution approach is well illustrated. Demo and end-usage is well covered. Role of Agentic AI in the solution could be explained better along with simulation implementation</t>
-  </si>
-  <si>
     <t>PIXELSQUAD</t>
   </si>
   <si>
@@ -238,7 +251,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="13"/>
         <rFont val="Roboto"/>
@@ -247,9 +260,6 @@
     </r>
   </si>
   <si>
-    <t>Proposed solution is not unique still combining all features of users' daily digital life, combating emotional fatigue, digital overstimulation, and screen overuse makes it a great idea and it has strong potential to be both habit-forming and healing.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Have you used one of the Must haves in your solution? </t>
   </si>
   <si>
@@ -314,39 +324,38 @@
   </si>
   <si>
     <t xml:space="preserve"> - Architecture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sl. No  </t>
+  </si>
+  <si>
+    <t>Good idea. Tech design needs refinement. Agentic AI's Role needs better clarity</t>
+  </si>
+  <si>
+    <t>Solution approach is well Illustrated. Demo and end-usage is well covered. Role of Agentic AI in the solution could be explained better along with simulation implementation</t>
+  </si>
+  <si>
+    <t>Proposed Solution is not unique still combining all features of users' daily digital life, combating emotional fatigue, digital overstimulation, and screen overuse makes it a great idea and it has strong potential to be both habit-forming and healing.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <color indexed="11"/>
       <name val="Arial (Body)"/>
@@ -357,13 +366,13 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="10"/>
       <color indexed="13"/>
       <name val="Roboto"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="12"/>
       <color indexed="14"/>
       <name val="Calibri"/>
@@ -479,62 +488,46 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="17">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -543,28 +536,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ff4472c4"/>
-      <rgbColor rgb="ff92d050"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ff0563c1"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FF4472C4"/>
+      <rgbColor rgb="FF92D050"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF0563C1"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -766,7 +816,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -784,7 +834,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -813,7 +863,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -838,7 +888,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -863,7 +913,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -888,7 +938,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -913,7 +963,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -938,7 +988,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -963,7 +1013,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -988,7 +1038,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1013,7 +1063,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1026,9 +1076,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1045,7 +1101,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1063,7 +1119,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1088,7 +1144,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1113,7 +1169,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1138,7 +1194,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1163,7 +1219,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1188,7 +1244,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1213,7 +1269,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1238,7 +1294,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1263,7 +1319,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1288,7 +1344,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1301,9 +1357,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1317,7 +1379,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1335,7 +1397,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1364,7 +1426,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1389,7 +1451,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1414,7 +1476,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1439,7 +1501,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1464,7 +1526,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1489,7 +1551,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1514,7 +1576,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1539,7 +1601,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1564,7 +1626,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1577,81 +1639,91 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I3" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="16" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="16.05" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="13.5" style="1" customWidth="1"/>
     <col min="2" max="5" width="38" style="1" customWidth="1"/>
     <col min="6" max="6" width="61" style="1" customWidth="1"/>
-    <col min="7" max="7" width="67.1719" style="1" customWidth="1"/>
-    <col min="8" max="8" width="45.6719" style="1" customWidth="1"/>
-    <col min="9" max="9" width="40.8516" style="1" customWidth="1"/>
+    <col min="7" max="7" width="67.19921875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="45.69921875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="40.796875" style="1" customWidth="1"/>
     <col min="10" max="11" width="38" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.8516" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.796875" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="80" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:11" ht="79.95" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="4">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="4">
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="4">
+      <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="4">
+      <c r="J1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="4">
+      <c r="K1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s" s="4">
+    </row>
+    <row r="2" spans="1:11" ht="34.049999999999997" customHeight="1">
+      <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" ht="34" customHeight="1">
-      <c r="A2" t="s" s="5">
+      <c r="B2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s" s="5">
+      <c r="C2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s" s="6">
+      <c r="D2" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="D2" t="s" s="7">
-        <v>14</v>
       </c>
       <c r="E2" s="8">
         <v>7.5</v>
@@ -1670,24 +1742,24 @@
       </c>
       <c r="J2" s="8" cm="1">
         <f t="array" ref="J2">E2*0.3+F2*0.3+G2*0.25+H2*0.1+I2*0.05</f>
-        <v>8.15</v>
-      </c>
-      <c r="K2" t="s" s="9">
+        <v>8.1499999999999986</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="67.95" customHeight="1">
+      <c r="A3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" ht="68" customHeight="1">
-      <c r="A3" t="s" s="5">
+      <c r="D3" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="B3" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s" s="9">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s" s="7">
-        <v>18</v>
       </c>
       <c r="E3" s="8">
         <v>8</v>
@@ -1708,22 +1780,22 @@
         <f t="array" ref="J3">E3*0.3+F3*0.3+G3*0.25+H3*0.1+I3*0.05</f>
         <v>8.25</v>
       </c>
-      <c r="K3" t="s" s="10">
+      <c r="K3" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="102" customHeight="1">
+      <c r="A4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" ht="102" customHeight="1">
-      <c r="A4" t="s" s="5">
+      <c r="D4" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="B4" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s" s="9">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s" s="7">
-        <v>23</v>
       </c>
       <c r="E4" s="8">
         <v>8</v>
@@ -1744,118 +1816,118 @@
         <f t="array" ref="J4">E4*0.3+F4*0.3+G4*0.25+H4*0.1+I4*0.05</f>
         <v>8.25</v>
       </c>
-      <c r="K4" t="s" s="9">
-        <v>24</v>
+      <c r="K4" s="9" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="5" ht="15.35" customHeight="1">
+    <row r="5" spans="1:11" ht="15.3" customHeight="1">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
-      <c r="F5" t="s" s="12">
+      <c r="F5" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="12" t="s">
         <v>25</v>
-      </c>
-      <c r="G5" t="s" s="13">
-        <v>26</v>
-      </c>
-      <c r="H5" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="I5" t="s" s="12">
-        <v>28</v>
-      </c>
-      <c r="J5" t="s" s="12">
-        <v>29</v>
       </c>
       <c r="K5" s="11"/>
     </row>
-    <row r="6" ht="15.35" customHeight="1">
+    <row r="6" spans="1:11" ht="15.3" customHeight="1">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
-      <c r="F6" t="s" s="15">
+      <c r="F6" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="15" t="s">
         <v>30</v>
-      </c>
-      <c r="G6" t="s" s="15">
-        <v>31</v>
-      </c>
-      <c r="H6" t="s" s="15">
-        <v>32</v>
-      </c>
-      <c r="I6" t="s" s="15">
-        <v>33</v>
-      </c>
-      <c r="J6" t="s" s="15">
-        <v>34</v>
       </c>
       <c r="K6" s="14"/>
     </row>
-    <row r="7" ht="15.35" customHeight="1">
+    <row r="7" spans="1:11" ht="15.3" customHeight="1">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
-      <c r="F7" t="s" s="15">
-        <v>35</v>
-      </c>
-      <c r="G7" t="s" s="16">
-        <v>36</v>
-      </c>
-      <c r="H7" t="s" s="15">
-        <v>37</v>
-      </c>
-      <c r="I7" t="s" s="15">
-        <v>38</v>
+      <c r="F7" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>34</v>
       </c>
       <c r="J7" s="14"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" ht="15.35" customHeight="1">
+    <row r="8" spans="1:11" ht="15.3" customHeight="1">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
-      <c r="F8" t="s" s="15">
-        <v>39</v>
-      </c>
-      <c r="G8" t="s" s="12">
-        <v>40</v>
-      </c>
-      <c r="H8" t="s" s="15">
-        <v>41</v>
-      </c>
-      <c r="I8" t="s" s="15">
-        <v>42</v>
+      <c r="F8" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>38</v>
       </c>
       <c r="J8" s="14"/>
       <c r="K8" s="14"/>
     </row>
-    <row r="9" ht="15.35" customHeight="1">
+    <row r="9" spans="1:11" ht="15.3" customHeight="1">
       <c r="A9" s="14"/>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
-      <c r="F9" t="s" s="15">
-        <v>43</v>
-      </c>
-      <c r="G9" t="s" s="15">
-        <v>44</v>
+      <c r="F9" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>40</v>
       </c>
       <c r="H9" s="14"/>
-      <c r="I9" t="s" s="15">
-        <v>45</v>
+      <c r="I9" s="15" t="s">
+        <v>41</v>
       </c>
       <c r="J9" s="14"/>
       <c r="K9" s="14"/>
     </row>
-    <row r="10" ht="15.35" customHeight="1">
+    <row r="10" spans="1:11" ht="15.3" customHeight="1">
       <c r="A10" s="14"/>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
@@ -1864,13 +1936,13 @@
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
-      <c r="I10" t="s" s="15">
-        <v>46</v>
+      <c r="I10" s="15" t="s">
+        <v>42</v>
       </c>
       <c r="J10" s="14"/>
       <c r="K10" s="14"/>
     </row>
-    <row r="11" ht="15.35" customHeight="1">
+    <row r="11" spans="1:11" ht="15.3" customHeight="1">
       <c r="A11" s="14"/>
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
@@ -1883,7 +1955,7 @@
       <c r="J11" s="14"/>
       <c r="K11" s="14"/>
     </row>
-    <row r="12" ht="15.35" customHeight="1">
+    <row r="12" spans="1:11" ht="15.3" customHeight="1">
       <c r="A12" s="14"/>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
@@ -1896,7 +1968,7 @@
       <c r="J12" s="14"/>
       <c r="K12" s="14"/>
     </row>
-    <row r="13" ht="15.35" customHeight="1">
+    <row r="13" spans="1:11" ht="15.3" customHeight="1">
       <c r="A13" s="14"/>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
@@ -1911,13 +1983,13 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" location="" tooltip="" display="https://youtu.be/02sEG3-Xp9w"/>
-    <hyperlink ref="C3" r:id="rId2" location="" tooltip="" display="https://docs.google.com/presentation/d/1BtPZlJcAZTtmOV6W277nPON4QiKO3jbI/edit?usp=drive_link&amp;ouid=111206592115685942855&amp;rtpof=true&amp;sd=true"/>
-    <hyperlink ref="D3" r:id="rId3" location="" tooltip="" display="https://youtu.be/08WUKKgszIU"/>
-    <hyperlink ref="D4" r:id="rId4" location="" tooltip="" display="https://youtu.be/S3Znea2f0jg"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D4" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
